--- a/biology/Botanique/Jamelonier/Jamelonier.xlsx
+++ b/biology/Botanique/Jamelonier/Jamelonier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syzygium cumini
-Le Jamblon, Jamblong, Tété négresse, Pesjua extranjera (espagnol), Jambolan (anglais), Jamelonier[2], ou de son nom scientifique Syzygium cumini, est un arbre tropical à feuilles persistantes de la famille des Myrtaceae.
+Le Jamblon, Jamblong, Tété négresse, Pesjua extranjera (espagnol), Jambolan (anglais), Jamelonier, ou de son nom scientifique Syzygium cumini, est un arbre tropical à feuilles persistantes de la famille des Myrtaceae.
 </t>
         </is>
       </c>
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Le jamblon a une croissance rapide. Il peut atteindre 30 m de haut et peut vivre plus de 100 ans.
-Feuilles
-Fleurs
-Les arbres commencent à fleurir de mars à avril. Les fleurs de Jamun sont parfumées et petites, d'environ 5 mm de diamètre.
-Fruits
-Les fruits se développent en mai ou juin et ressemblent à de grandes baies. Le fruit est oblong, ovoïde, vert au départ, il vire au rose, et enfin au noir et au pourpre brillant lors de sa maturation. Ces fruits sont pourpres et ovales comme des prunes[3].
-Une variante de l'arbre produit des fruits de couleur blanche. Le fruit, parfois appelé prune de Java, a une combinaison de goûts : sucré, légèrement acide et astringent. Il a tendance à noircir la langue.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jamblon a une croissance rapide. Il peut atteindre 30 m de haut et peut vivre plus de 100 ans.
 </t>
         </is>
       </c>
@@ -547,14 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un arbre originaire du Bangladesh, Inde, Népal, Pakistan et Indonésie. Il est connu localement sous des noms comme Jaam/Kalojaam, Jamun, Nerale Hannu, Njaval, Neredupandu, Jamblang, Jambolan, Black Plum, Damson Plum, Duhat Plum, Jambolan Plum, Java Plum ou Portuguese Plum. Malabar Plum peut également se référer à d'autres espèces de Syzygium.
-Il est également cultivé dans d'autres régions du sud et du sud-est de l'Asie dont les Philippines, la Birmanie et l'Afghanistan. L'arbre a aussi été introduit en Floride, aux États-Unis en 1911 par l'USDA et est également aujourd'hui communément plantés au Suriname. Il a été introduit au Brésil à partir de l'Inde pendant la colonisation portugaise. Il s'est dispersé spontanément dans la nature dans certains lieux et ses fruits sont très recherchés par divers oiseaux indigènes, comme les grives, les thraupidés et le Tyran quiquivi.
-En Nouvelle-Calédonie et en Polynésie française, où cette espèce est appelée jamelonguier ou « faux pistachier », elle aurait été introduite en 1900 et est considérée envahissante[4]. À Rarotonga, il est appelé « Kahika papaa ». A Tahiti et aux îles Marquises,il est nommé familièrement « pistas » car le fruit  « pisse »  et « tache » : à maturité, le fruit très juteux produit un jus très coloré par les tannins[5].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres commencent à fleurir de mars à avril. Les fleurs de Jamun sont parfumées et petites, d'environ 5 mm de diamètre.
 </t>
         </is>
       </c>
@@ -580,10 +595,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits se développent en mai ou juin et ressemblent à de grandes baies. Le fruit est oblong, ovoïde, vert au départ, il vire au rose, et enfin au noir et au pourpre brillant lors de sa maturation. Ces fruits sont pourpres et ovales comme des prunes.
+Une variante de l'arbre produit des fruits de couleur blanche. Le fruit, parfois appelé prune de Java, a une combinaison de goûts : sucré, légèrement acide et astringent. Il a tendance à noircir la langue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jamelonier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamelonier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre originaire du Bangladesh, Inde, Népal, Pakistan et Indonésie. Il est connu localement sous des noms comme Jaam/Kalojaam, Jamun, Nerale Hannu, Njaval, Neredupandu, Jamblang, Jambolan, Black Plum, Damson Plum, Duhat Plum, Jambolan Plum, Java Plum ou Portuguese Plum. Malabar Plum peut également se référer à d'autres espèces de Syzygium.
+Il est également cultivé dans d'autres régions du sud et du sud-est de l'Asie dont les Philippines, la Birmanie et l'Afghanistan. L'arbre a aussi été introduit en Floride, aux États-Unis en 1911 par l'USDA et est également aujourd'hui communément plantés au Suriname. Il a été introduit au Brésil à partir de l'Inde pendant la colonisation portugaise. Il s'est dispersé spontanément dans la nature dans certains lieux et ses fruits sont très recherchés par divers oiseaux indigènes, comme les grives, les thraupidés et le Tyran quiquivi.
+En Nouvelle-Calédonie et en Polynésie française, où cette espèce est appelée jamelonguier ou « faux pistachier », elle aurait été introduite en 1900 et est considérée envahissante. À Rarotonga, il est appelé « Kahika papaa ». A Tahiti et aux îles Marquises,il est nommé familièrement « pistas » car le fruit  « pisse »  et « tache » : à maturité, le fruit très juteux produit un jus très coloré par les tannins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jamelonier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamelonier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son feuillage dense donne de l'ombre et l'arbre est ainsi cultivé seulement pour sa valeur ornementale.
 Son bois solide est imputrescible. C'est pourquoi il est utilisé dans les traverses de chemin de fer et installé dans les puits.
@@ -595,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jamelonier</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jamelonier</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syzygium cumini
 Syzygium jambolanum
